--- a/trunk/App_pressing_Loreau/Resources/PatternFile/FacturePattern.xlsx
+++ b/trunk/App_pressing_Loreau/Resources/PatternFile/FacturePattern.xlsx
@@ -241,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -252,15 +252,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -270,9 +261,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:K33"/>
+  <dimension ref="A2:K123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -631,28 +638,36 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="26.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="15"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="13"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="14"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1">
       <c r="A10" s="5"/>
@@ -661,42 +676,42 @@
       <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickTop="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1">
       <c r="A16" s="6"/>
@@ -711,138 +726,499 @@
       <c r="D17" s="3"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="14"/>
       <c r="G19" s="9"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="12"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="18"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="14"/>
       <c r="G20" s="9"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="12"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="18"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="14"/>
       <c r="G21" s="9"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="12"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="18"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="14"/>
       <c r="G22" s="9"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="12"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="18"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="14"/>
       <c r="G23" s="9"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="12"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="18"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="14"/>
       <c r="G24" s="9"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="12"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="18"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="14"/>
       <c r="G25" s="9"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="12"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="18"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="14"/>
       <c r="G26" s="9"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="12"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="18"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="14"/>
       <c r="G27" s="9"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="12"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="18"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="14"/>
       <c r="G28" s="9"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="12"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="18"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="14"/>
       <c r="G29" s="9"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="12"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="18"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="14"/>
       <c r="G30" s="9"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="12"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="18"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="14"/>
       <c r="G31" s="9"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="12"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="18"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="14"/>
       <c r="G32" s="9"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="12"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="18"/>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="10"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="14"/>
       <c r="G33" s="9"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="12"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="18"/>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+    </row>
+    <row r="49" spans="9:10">
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+    </row>
+    <row r="50" spans="9:10">
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+    </row>
+    <row r="51" spans="9:10">
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+    </row>
+    <row r="52" spans="9:10">
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+    </row>
+    <row r="53" spans="9:10">
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+    </row>
+    <row r="54" spans="9:10">
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+    </row>
+    <row r="55" spans="9:10">
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+    </row>
+    <row r="56" spans="9:10">
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+    </row>
+    <row r="57" spans="9:10">
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+    </row>
+    <row r="58" spans="9:10">
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+    </row>
+    <row r="59" spans="9:10">
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+    </row>
+    <row r="60" spans="9:10">
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+    </row>
+    <row r="61" spans="9:10">
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+    </row>
+    <row r="62" spans="9:10">
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+    </row>
+    <row r="63" spans="9:10">
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+    </row>
+    <row r="64" spans="9:10">
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+    </row>
+    <row r="65" spans="9:10">
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
+    </row>
+    <row r="66" spans="9:10">
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
+    </row>
+    <row r="67" spans="9:10">
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+    </row>
+    <row r="68" spans="9:10">
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+    </row>
+    <row r="69" spans="9:10">
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
+    </row>
+    <row r="70" spans="9:10">
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
+    </row>
+    <row r="71" spans="9:10">
+      <c r="I71" s="19"/>
+      <c r="J71" s="19"/>
+    </row>
+    <row r="72" spans="9:10">
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
+    </row>
+    <row r="73" spans="9:10">
+      <c r="I73" s="19"/>
+      <c r="J73" s="19"/>
+    </row>
+    <row r="74" spans="9:10">
+      <c r="I74" s="19"/>
+      <c r="J74" s="19"/>
+    </row>
+    <row r="75" spans="9:10">
+      <c r="I75" s="19"/>
+      <c r="J75" s="19"/>
+    </row>
+    <row r="76" spans="9:10">
+      <c r="I76" s="19"/>
+      <c r="J76" s="19"/>
+    </row>
+    <row r="77" spans="9:10">
+      <c r="I77" s="19"/>
+      <c r="J77" s="19"/>
+    </row>
+    <row r="78" spans="9:10">
+      <c r="I78" s="19"/>
+      <c r="J78" s="19"/>
+    </row>
+    <row r="79" spans="9:10">
+      <c r="I79" s="19"/>
+      <c r="J79" s="19"/>
+    </row>
+    <row r="80" spans="9:10">
+      <c r="I80" s="19"/>
+      <c r="J80" s="19"/>
+    </row>
+    <row r="81" spans="9:10">
+      <c r="I81" s="19"/>
+      <c r="J81" s="19"/>
+    </row>
+    <row r="82" spans="9:10">
+      <c r="I82" s="19"/>
+      <c r="J82" s="19"/>
+    </row>
+    <row r="83" spans="9:10">
+      <c r="I83" s="19"/>
+      <c r="J83" s="19"/>
+    </row>
+    <row r="84" spans="9:10">
+      <c r="I84" s="19"/>
+      <c r="J84" s="19"/>
+    </row>
+    <row r="85" spans="9:10">
+      <c r="I85" s="19"/>
+      <c r="J85" s="19"/>
+    </row>
+    <row r="86" spans="9:10">
+      <c r="I86" s="19"/>
+      <c r="J86" s="19"/>
+    </row>
+    <row r="87" spans="9:10">
+      <c r="I87" s="19"/>
+      <c r="J87" s="19"/>
+    </row>
+    <row r="88" spans="9:10">
+      <c r="I88" s="19"/>
+      <c r="J88" s="19"/>
+    </row>
+    <row r="89" spans="9:10">
+      <c r="I89" s="19"/>
+      <c r="J89" s="19"/>
+    </row>
+    <row r="90" spans="9:10">
+      <c r="I90" s="19"/>
+      <c r="J90" s="19"/>
+    </row>
+    <row r="91" spans="9:10">
+      <c r="I91" s="19"/>
+      <c r="J91" s="19"/>
+    </row>
+    <row r="92" spans="9:10">
+      <c r="I92" s="19"/>
+      <c r="J92" s="19"/>
+    </row>
+    <row r="93" spans="9:10">
+      <c r="I93" s="19"/>
+      <c r="J93" s="19"/>
+    </row>
+    <row r="94" spans="9:10">
+      <c r="I94" s="19"/>
+      <c r="J94" s="19"/>
+    </row>
+    <row r="95" spans="9:10">
+      <c r="I95" s="19"/>
+      <c r="J95" s="19"/>
+    </row>
+    <row r="96" spans="9:10">
+      <c r="I96" s="19"/>
+      <c r="J96" s="19"/>
+    </row>
+    <row r="97" spans="9:10">
+      <c r="I97" s="19"/>
+      <c r="J97" s="19"/>
+    </row>
+    <row r="98" spans="9:10">
+      <c r="I98" s="19"/>
+      <c r="J98" s="19"/>
+    </row>
+    <row r="99" spans="9:10">
+      <c r="I99" s="19"/>
+      <c r="J99" s="19"/>
+    </row>
+    <row r="100" spans="9:10">
+      <c r="I100" s="19"/>
+      <c r="J100" s="19"/>
+    </row>
+    <row r="101" spans="9:10">
+      <c r="I101" s="19"/>
+      <c r="J101" s="19"/>
+    </row>
+    <row r="102" spans="9:10">
+      <c r="I102" s="19"/>
+      <c r="J102" s="19"/>
+    </row>
+    <row r="103" spans="9:10">
+      <c r="I103" s="19"/>
+      <c r="J103" s="19"/>
+    </row>
+    <row r="104" spans="9:10">
+      <c r="I104" s="19"/>
+      <c r="J104" s="19"/>
+    </row>
+    <row r="105" spans="9:10">
+      <c r="I105" s="19"/>
+      <c r="J105" s="19"/>
+    </row>
+    <row r="106" spans="9:10">
+      <c r="I106" s="19"/>
+      <c r="J106" s="19"/>
+    </row>
+    <row r="107" spans="9:10">
+      <c r="I107" s="19"/>
+      <c r="J107" s="19"/>
+    </row>
+    <row r="108" spans="9:10">
+      <c r="I108" s="19"/>
+      <c r="J108" s="19"/>
+    </row>
+    <row r="109" spans="9:10">
+      <c r="I109" s="19"/>
+      <c r="J109" s="19"/>
+    </row>
+    <row r="110" spans="9:10">
+      <c r="I110" s="19"/>
+      <c r="J110" s="19"/>
+    </row>
+    <row r="111" spans="9:10">
+      <c r="I111" s="19"/>
+      <c r="J111" s="19"/>
+    </row>
+    <row r="112" spans="9:10">
+      <c r="I112" s="19"/>
+      <c r="J112" s="19"/>
+    </row>
+    <row r="113" spans="9:10">
+      <c r="I113" s="19"/>
+      <c r="J113" s="19"/>
+    </row>
+    <row r="114" spans="9:10">
+      <c r="I114" s="19"/>
+      <c r="J114" s="19"/>
+    </row>
+    <row r="115" spans="9:10">
+      <c r="I115" s="19"/>
+      <c r="J115" s="19"/>
+    </row>
+    <row r="116" spans="9:10">
+      <c r="I116" s="19"/>
+      <c r="J116" s="19"/>
+    </row>
+    <row r="117" spans="9:10">
+      <c r="I117" s="19"/>
+      <c r="J117" s="19"/>
+    </row>
+    <row r="118" spans="9:10">
+      <c r="I118" s="19"/>
+      <c r="J118" s="19"/>
+    </row>
+    <row r="119" spans="9:10">
+      <c r="I119" s="19"/>
+      <c r="J119" s="19"/>
+    </row>
+    <row r="120" spans="9:10">
+      <c r="I120" s="19"/>
+      <c r="J120" s="19"/>
+    </row>
+    <row r="121" spans="9:10">
+      <c r="I121" s="19"/>
+      <c r="J121" s="19"/>
+    </row>
+    <row r="122" spans="9:10">
+      <c r="I122" s="19"/>
+      <c r="J122" s="19"/>
+    </row>
+    <row r="123" spans="9:10">
+      <c r="I123" s="19"/>
+      <c r="J123" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="A7:K7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="I20:J20"/>
+  <mergeCells count="38">
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="B21:D21"/>
@@ -857,18 +1233,18 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="I26:J26"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/trunk/App_pressing_Loreau/Resources/PatternFile/FacturePattern.xlsx
+++ b/trunk/App_pressing_Loreau/Resources/PatternFile/FacturePattern.xlsx
@@ -241,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -252,6 +252,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -261,25 +271,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -638,36 +650,36 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="26.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="12"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="16"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="13"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="14"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="13"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1">
       <c r="A10" s="5"/>
@@ -676,42 +688,42 @@
       <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickTop="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1">
       <c r="A16" s="6"/>
@@ -726,499 +738,499 @@
       <c r="D17" s="3"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="B19" s="13"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="14"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="13"/>
       <c r="G19" s="9"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="19"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="B20" s="13"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="14"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="13"/>
       <c r="G20" s="9"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="19"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="B21" s="13"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="14"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="13"/>
       <c r="G21" s="9"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="19"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="B22" s="13"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="14"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="13"/>
       <c r="G22" s="9"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="19"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="B23" s="13"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="14"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="13"/>
       <c r="G23" s="9"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="19"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="B24" s="13"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="14"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="13"/>
       <c r="G24" s="9"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="19"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="B25" s="13"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="14"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="13"/>
       <c r="G25" s="9"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="19"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="B26" s="13"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="14"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
       <c r="G26" s="9"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="19"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="B27" s="13"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="14"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="13"/>
       <c r="G27" s="9"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="19"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="B28" s="13"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="14"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="13"/>
       <c r="G28" s="9"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="19"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="B29" s="13"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="14"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="13"/>
       <c r="G29" s="9"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="19"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="B30" s="13"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="14"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="13"/>
       <c r="G30" s="9"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="19"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="B31" s="13"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="14"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="13"/>
       <c r="G31" s="9"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="19"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="B32" s="13"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="14"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="13"/>
       <c r="G32" s="9"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="19"/>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="13"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="14"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="13"/>
       <c r="G33" s="9"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="19"/>
     </row>
     <row r="34" spans="2:10">
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
     </row>
     <row r="35" spans="2:10">
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
     </row>
     <row r="36" spans="2:10">
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
     </row>
     <row r="37" spans="2:10">
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
     </row>
     <row r="38" spans="2:10">
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
     </row>
     <row r="39" spans="2:10">
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
     </row>
     <row r="40" spans="2:10">
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
     </row>
     <row r="41" spans="2:10">
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
     </row>
     <row r="42" spans="2:10">
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
     </row>
     <row r="43" spans="2:10">
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
     </row>
     <row r="44" spans="2:10">
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
     </row>
     <row r="45" spans="2:10">
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
     </row>
     <row r="46" spans="2:10">
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
     </row>
     <row r="47" spans="2:10">
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
     </row>
     <row r="48" spans="2:10">
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
     </row>
     <row r="49" spans="9:10">
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
     </row>
     <row r="50" spans="9:10">
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
     </row>
     <row r="51" spans="9:10">
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
     </row>
     <row r="52" spans="9:10">
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
     </row>
     <row r="53" spans="9:10">
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
     </row>
     <row r="54" spans="9:10">
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
     </row>
     <row r="55" spans="9:10">
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
     </row>
     <row r="56" spans="9:10">
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
     </row>
     <row r="57" spans="9:10">
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
     </row>
     <row r="58" spans="9:10">
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
     </row>
     <row r="59" spans="9:10">
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
     </row>
     <row r="60" spans="9:10">
-      <c r="I60" s="19"/>
-      <c r="J60" s="19"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
     </row>
     <row r="61" spans="9:10">
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
     </row>
     <row r="62" spans="9:10">
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="20"/>
     </row>
     <row r="63" spans="9:10">
-      <c r="I63" s="19"/>
-      <c r="J63" s="19"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
     </row>
     <row r="64" spans="9:10">
-      <c r="I64" s="19"/>
-      <c r="J64" s="19"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
     </row>
     <row r="65" spans="9:10">
-      <c r="I65" s="19"/>
-      <c r="J65" s="19"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="20"/>
     </row>
     <row r="66" spans="9:10">
-      <c r="I66" s="19"/>
-      <c r="J66" s="19"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="20"/>
     </row>
     <row r="67" spans="9:10">
-      <c r="I67" s="19"/>
-      <c r="J67" s="19"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="20"/>
     </row>
     <row r="68" spans="9:10">
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="20"/>
     </row>
     <row r="69" spans="9:10">
-      <c r="I69" s="19"/>
-      <c r="J69" s="19"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="20"/>
     </row>
     <row r="70" spans="9:10">
-      <c r="I70" s="19"/>
-      <c r="J70" s="19"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="20"/>
     </row>
     <row r="71" spans="9:10">
-      <c r="I71" s="19"/>
-      <c r="J71" s="19"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="20"/>
     </row>
     <row r="72" spans="9:10">
-      <c r="I72" s="19"/>
-      <c r="J72" s="19"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="20"/>
     </row>
     <row r="73" spans="9:10">
-      <c r="I73" s="19"/>
-      <c r="J73" s="19"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="20"/>
     </row>
     <row r="74" spans="9:10">
-      <c r="I74" s="19"/>
-      <c r="J74" s="19"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="20"/>
     </row>
     <row r="75" spans="9:10">
-      <c r="I75" s="19"/>
-      <c r="J75" s="19"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="20"/>
     </row>
     <row r="76" spans="9:10">
-      <c r="I76" s="19"/>
-      <c r="J76" s="19"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="20"/>
     </row>
     <row r="77" spans="9:10">
-      <c r="I77" s="19"/>
-      <c r="J77" s="19"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="20"/>
     </row>
     <row r="78" spans="9:10">
-      <c r="I78" s="19"/>
-      <c r="J78" s="19"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="20"/>
     </row>
     <row r="79" spans="9:10">
-      <c r="I79" s="19"/>
-      <c r="J79" s="19"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="20"/>
     </row>
     <row r="80" spans="9:10">
-      <c r="I80" s="19"/>
-      <c r="J80" s="19"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="20"/>
     </row>
     <row r="81" spans="9:10">
-      <c r="I81" s="19"/>
-      <c r="J81" s="19"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="20"/>
     </row>
     <row r="82" spans="9:10">
-      <c r="I82" s="19"/>
-      <c r="J82" s="19"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="20"/>
     </row>
     <row r="83" spans="9:10">
-      <c r="I83" s="19"/>
-      <c r="J83" s="19"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="20"/>
     </row>
     <row r="84" spans="9:10">
-      <c r="I84" s="19"/>
-      <c r="J84" s="19"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="20"/>
     </row>
     <row r="85" spans="9:10">
-      <c r="I85" s="19"/>
-      <c r="J85" s="19"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="20"/>
     </row>
     <row r="86" spans="9:10">
-      <c r="I86" s="19"/>
-      <c r="J86" s="19"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="20"/>
     </row>
     <row r="87" spans="9:10">
-      <c r="I87" s="19"/>
-      <c r="J87" s="19"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="20"/>
     </row>
     <row r="88" spans="9:10">
-      <c r="I88" s="19"/>
-      <c r="J88" s="19"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="20"/>
     </row>
     <row r="89" spans="9:10">
-      <c r="I89" s="19"/>
-      <c r="J89" s="19"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="20"/>
     </row>
     <row r="90" spans="9:10">
-      <c r="I90" s="19"/>
-      <c r="J90" s="19"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="20"/>
     </row>
     <row r="91" spans="9:10">
-      <c r="I91" s="19"/>
-      <c r="J91" s="19"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="20"/>
     </row>
     <row r="92" spans="9:10">
-      <c r="I92" s="19"/>
-      <c r="J92" s="19"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="20"/>
     </row>
     <row r="93" spans="9:10">
-      <c r="I93" s="19"/>
-      <c r="J93" s="19"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="20"/>
     </row>
     <row r="94" spans="9:10">
-      <c r="I94" s="19"/>
-      <c r="J94" s="19"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="20"/>
     </row>
     <row r="95" spans="9:10">
-      <c r="I95" s="19"/>
-      <c r="J95" s="19"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="20"/>
     </row>
     <row r="96" spans="9:10">
-      <c r="I96" s="19"/>
-      <c r="J96" s="19"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="20"/>
     </row>
     <row r="97" spans="9:10">
-      <c r="I97" s="19"/>
-      <c r="J97" s="19"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="20"/>
     </row>
     <row r="98" spans="9:10">
-      <c r="I98" s="19"/>
-      <c r="J98" s="19"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="20"/>
     </row>
     <row r="99" spans="9:10">
-      <c r="I99" s="19"/>
-      <c r="J99" s="19"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="20"/>
     </row>
     <row r="100" spans="9:10">
-      <c r="I100" s="19"/>
-      <c r="J100" s="19"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="20"/>
     </row>
     <row r="101" spans="9:10">
-      <c r="I101" s="19"/>
-      <c r="J101" s="19"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="20"/>
     </row>
     <row r="102" spans="9:10">
-      <c r="I102" s="19"/>
-      <c r="J102" s="19"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="20"/>
     </row>
     <row r="103" spans="9:10">
-      <c r="I103" s="19"/>
-      <c r="J103" s="19"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="20"/>
     </row>
     <row r="104" spans="9:10">
-      <c r="I104" s="19"/>
-      <c r="J104" s="19"/>
+      <c r="I104" s="20"/>
+      <c r="J104" s="20"/>
     </row>
     <row r="105" spans="9:10">
-      <c r="I105" s="19"/>
-      <c r="J105" s="19"/>
+      <c r="I105" s="20"/>
+      <c r="J105" s="20"/>
     </row>
     <row r="106" spans="9:10">
-      <c r="I106" s="19"/>
-      <c r="J106" s="19"/>
+      <c r="I106" s="20"/>
+      <c r="J106" s="20"/>
     </row>
     <row r="107" spans="9:10">
-      <c r="I107" s="19"/>
-      <c r="J107" s="19"/>
+      <c r="I107" s="20"/>
+      <c r="J107" s="20"/>
     </row>
     <row r="108" spans="9:10">
-      <c r="I108" s="19"/>
-      <c r="J108" s="19"/>
+      <c r="I108" s="20"/>
+      <c r="J108" s="20"/>
     </row>
     <row r="109" spans="9:10">
-      <c r="I109" s="19"/>
-      <c r="J109" s="19"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="20"/>
     </row>
     <row r="110" spans="9:10">
-      <c r="I110" s="19"/>
-      <c r="J110" s="19"/>
+      <c r="I110" s="20"/>
+      <c r="J110" s="20"/>
     </row>
     <row r="111" spans="9:10">
-      <c r="I111" s="19"/>
-      <c r="J111" s="19"/>
+      <c r="I111" s="20"/>
+      <c r="J111" s="20"/>
     </row>
     <row r="112" spans="9:10">
-      <c r="I112" s="19"/>
-      <c r="J112" s="19"/>
+      <c r="I112" s="20"/>
+      <c r="J112" s="20"/>
     </row>
     <row r="113" spans="9:10">
-      <c r="I113" s="19"/>
-      <c r="J113" s="19"/>
+      <c r="I113" s="20"/>
+      <c r="J113" s="20"/>
     </row>
     <row r="114" spans="9:10">
-      <c r="I114" s="19"/>
-      <c r="J114" s="19"/>
+      <c r="I114" s="20"/>
+      <c r="J114" s="20"/>
     </row>
     <row r="115" spans="9:10">
-      <c r="I115" s="19"/>
-      <c r="J115" s="19"/>
+      <c r="I115" s="20"/>
+      <c r="J115" s="20"/>
     </row>
     <row r="116" spans="9:10">
-      <c r="I116" s="19"/>
-      <c r="J116" s="19"/>
+      <c r="I116" s="20"/>
+      <c r="J116" s="20"/>
     </row>
     <row r="117" spans="9:10">
-      <c r="I117" s="19"/>
-      <c r="J117" s="19"/>
+      <c r="I117" s="20"/>
+      <c r="J117" s="20"/>
     </row>
     <row r="118" spans="9:10">
-      <c r="I118" s="19"/>
-      <c r="J118" s="19"/>
+      <c r="I118" s="10"/>
+      <c r="J118" s="10"/>
     </row>
     <row r="119" spans="9:10">
-      <c r="I119" s="19"/>
-      <c r="J119" s="19"/>
+      <c r="I119" s="10"/>
+      <c r="J119" s="10"/>
     </row>
     <row r="120" spans="9:10">
-      <c r="I120" s="19"/>
-      <c r="J120" s="19"/>
+      <c r="I120" s="10"/>
+      <c r="J120" s="10"/>
     </row>
     <row r="121" spans="9:10">
-      <c r="I121" s="19"/>
-      <c r="J121" s="19"/>
+      <c r="I121" s="10"/>
+      <c r="J121" s="10"/>
     </row>
     <row r="122" spans="9:10">
-      <c r="I122" s="19"/>
-      <c r="J122" s="19"/>
+      <c r="I122" s="10"/>
+      <c r="J122" s="10"/>
     </row>
     <row r="123" spans="9:10">
-      <c r="I123" s="19"/>
-      <c r="J123" s="19"/>
+      <c r="I123" s="10"/>
+      <c r="J123" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="I20:J20"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="B21:D21"/>
@@ -1233,18 +1245,18 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="A7:K7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="I33:J33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/trunk/App_pressing_Loreau/Resources/PatternFile/FacturePattern.xlsx
+++ b/trunk/App_pressing_Loreau/Resources/PatternFile/FacturePattern.xlsx
@@ -52,6 +52,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -241,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -253,36 +256,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -290,6 +287,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -588,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:F8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -650,36 +656,36 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="26.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="16"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="16"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1">
       <c r="A10" s="5"/>
@@ -694,36 +700,36 @@
       <c r="D11" s="17"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1">
       <c r="A16" s="6"/>
@@ -738,460 +744,460 @@
       <c r="D17" s="3"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="16"/>
       <c r="G19" s="9"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="19"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="23"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="16"/>
       <c r="G20" s="9"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="19"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="23"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="16"/>
       <c r="G21" s="9"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="19"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="23"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="13"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="16"/>
       <c r="G22" s="9"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="19"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="23"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="16"/>
       <c r="G23" s="9"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="19"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="23"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="13"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="16"/>
       <c r="G24" s="9"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="19"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="23"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="B25" s="11"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="13"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="16"/>
       <c r="G25" s="9"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="19"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="23"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="13"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="16"/>
       <c r="G26" s="9"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="19"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="23"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="B27" s="11"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="13"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="16"/>
       <c r="G27" s="9"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="19"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="23"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="B28" s="11"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="13"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="16"/>
       <c r="G28" s="9"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="19"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="23"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="13"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="16"/>
       <c r="G29" s="9"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="19"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="23"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="B30" s="11"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="13"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="16"/>
       <c r="G30" s="9"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="19"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="23"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="B31" s="11"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="13"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="16"/>
       <c r="G31" s="9"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="19"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="23"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="B32" s="11"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="13"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="16"/>
       <c r="G32" s="9"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="19"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="23"/>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="11"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="13"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="16"/>
       <c r="G33" s="9"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="19"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="23"/>
     </row>
     <row r="34" spans="2:10">
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
     </row>
     <row r="35" spans="2:10">
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
     </row>
     <row r="36" spans="2:10">
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
     </row>
     <row r="37" spans="2:10">
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
     </row>
     <row r="38" spans="2:10">
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
     </row>
     <row r="39" spans="2:10">
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
     </row>
     <row r="40" spans="2:10">
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
     </row>
     <row r="41" spans="2:10">
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
     </row>
     <row r="42" spans="2:10">
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
     </row>
     <row r="43" spans="2:10">
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
     </row>
     <row r="44" spans="2:10">
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
     </row>
     <row r="45" spans="2:10">
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
     </row>
     <row r="46" spans="2:10">
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
     </row>
     <row r="47" spans="2:10">
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
     </row>
     <row r="48" spans="2:10">
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
     </row>
     <row r="49" spans="9:10">
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
     </row>
     <row r="50" spans="9:10">
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
     </row>
     <row r="51" spans="9:10">
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
     </row>
     <row r="52" spans="9:10">
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
     </row>
     <row r="53" spans="9:10">
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
     </row>
     <row r="54" spans="9:10">
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
     </row>
     <row r="55" spans="9:10">
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
     </row>
     <row r="56" spans="9:10">
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
     </row>
     <row r="57" spans="9:10">
-      <c r="I57" s="20"/>
-      <c r="J57" s="20"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
     </row>
     <row r="58" spans="9:10">
-      <c r="I58" s="20"/>
-      <c r="J58" s="20"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
     </row>
     <row r="59" spans="9:10">
-      <c r="I59" s="20"/>
-      <c r="J59" s="20"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
     </row>
     <row r="60" spans="9:10">
-      <c r="I60" s="20"/>
-      <c r="J60" s="20"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
     </row>
     <row r="61" spans="9:10">
-      <c r="I61" s="20"/>
-      <c r="J61" s="20"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
     </row>
     <row r="62" spans="9:10">
-      <c r="I62" s="20"/>
-      <c r="J62" s="20"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
     </row>
     <row r="63" spans="9:10">
-      <c r="I63" s="20"/>
-      <c r="J63" s="20"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
     </row>
     <row r="64" spans="9:10">
-      <c r="I64" s="20"/>
-      <c r="J64" s="20"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
     </row>
     <row r="65" spans="9:10">
-      <c r="I65" s="20"/>
-      <c r="J65" s="20"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
     </row>
     <row r="66" spans="9:10">
-      <c r="I66" s="20"/>
-      <c r="J66" s="20"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
     </row>
     <row r="67" spans="9:10">
-      <c r="I67" s="20"/>
-      <c r="J67" s="20"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
     </row>
     <row r="68" spans="9:10">
-      <c r="I68" s="20"/>
-      <c r="J68" s="20"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
     </row>
     <row r="69" spans="9:10">
-      <c r="I69" s="20"/>
-      <c r="J69" s="20"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
     </row>
     <row r="70" spans="9:10">
-      <c r="I70" s="20"/>
-      <c r="J70" s="20"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
     </row>
     <row r="71" spans="9:10">
-      <c r="I71" s="20"/>
-      <c r="J71" s="20"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
     </row>
     <row r="72" spans="9:10">
-      <c r="I72" s="20"/>
-      <c r="J72" s="20"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
     </row>
     <row r="73" spans="9:10">
-      <c r="I73" s="20"/>
-      <c r="J73" s="20"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
     </row>
     <row r="74" spans="9:10">
-      <c r="I74" s="20"/>
-      <c r="J74" s="20"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
     </row>
     <row r="75" spans="9:10">
-      <c r="I75" s="20"/>
-      <c r="J75" s="20"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
     </row>
     <row r="76" spans="9:10">
-      <c r="I76" s="20"/>
-      <c r="J76" s="20"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
     </row>
     <row r="77" spans="9:10">
-      <c r="I77" s="20"/>
-      <c r="J77" s="20"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
     </row>
     <row r="78" spans="9:10">
-      <c r="I78" s="20"/>
-      <c r="J78" s="20"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
     </row>
     <row r="79" spans="9:10">
-      <c r="I79" s="20"/>
-      <c r="J79" s="20"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
     </row>
     <row r="80" spans="9:10">
-      <c r="I80" s="20"/>
-      <c r="J80" s="20"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
     </row>
     <row r="81" spans="9:10">
-      <c r="I81" s="20"/>
-      <c r="J81" s="20"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
     </row>
     <row r="82" spans="9:10">
-      <c r="I82" s="20"/>
-      <c r="J82" s="20"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="11"/>
     </row>
     <row r="83" spans="9:10">
-      <c r="I83" s="20"/>
-      <c r="J83" s="20"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="11"/>
     </row>
     <row r="84" spans="9:10">
-      <c r="I84" s="20"/>
-      <c r="J84" s="20"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="11"/>
     </row>
     <row r="85" spans="9:10">
-      <c r="I85" s="20"/>
-      <c r="J85" s="20"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="11"/>
     </row>
     <row r="86" spans="9:10">
-      <c r="I86" s="20"/>
-      <c r="J86" s="20"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
     </row>
     <row r="87" spans="9:10">
-      <c r="I87" s="20"/>
-      <c r="J87" s="20"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="11"/>
     </row>
     <row r="88" spans="9:10">
-      <c r="I88" s="20"/>
-      <c r="J88" s="20"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="11"/>
     </row>
     <row r="89" spans="9:10">
-      <c r="I89" s="20"/>
-      <c r="J89" s="20"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
     </row>
     <row r="90" spans="9:10">
-      <c r="I90" s="20"/>
-      <c r="J90" s="20"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="11"/>
     </row>
     <row r="91" spans="9:10">
-      <c r="I91" s="20"/>
-      <c r="J91" s="20"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="11"/>
     </row>
     <row r="92" spans="9:10">
-      <c r="I92" s="20"/>
-      <c r="J92" s="20"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
     </row>
     <row r="93" spans="9:10">
-      <c r="I93" s="20"/>
-      <c r="J93" s="20"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="11"/>
     </row>
     <row r="94" spans="9:10">
-      <c r="I94" s="20"/>
-      <c r="J94" s="20"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="11"/>
     </row>
     <row r="95" spans="9:10">
-      <c r="I95" s="20"/>
-      <c r="J95" s="20"/>
+      <c r="I95" s="11"/>
+      <c r="J95" s="11"/>
     </row>
     <row r="96" spans="9:10">
-      <c r="I96" s="20"/>
-      <c r="J96" s="20"/>
+      <c r="I96" s="11"/>
+      <c r="J96" s="11"/>
     </row>
     <row r="97" spans="9:10">
-      <c r="I97" s="20"/>
-      <c r="J97" s="20"/>
+      <c r="I97" s="11"/>
+      <c r="J97" s="11"/>
     </row>
     <row r="98" spans="9:10">
-      <c r="I98" s="20"/>
-      <c r="J98" s="20"/>
+      <c r="I98" s="11"/>
+      <c r="J98" s="11"/>
     </row>
     <row r="99" spans="9:10">
-      <c r="I99" s="20"/>
-      <c r="J99" s="20"/>
+      <c r="I99" s="11"/>
+      <c r="J99" s="11"/>
     </row>
     <row r="100" spans="9:10">
-      <c r="I100" s="20"/>
-      <c r="J100" s="20"/>
+      <c r="I100" s="11"/>
+      <c r="J100" s="11"/>
     </row>
     <row r="101" spans="9:10">
-      <c r="I101" s="20"/>
-      <c r="J101" s="20"/>
+      <c r="I101" s="11"/>
+      <c r="J101" s="11"/>
     </row>
     <row r="102" spans="9:10">
-      <c r="I102" s="20"/>
-      <c r="J102" s="20"/>
+      <c r="I102" s="11"/>
+      <c r="J102" s="11"/>
     </row>
     <row r="103" spans="9:10">
-      <c r="I103" s="20"/>
-      <c r="J103" s="20"/>
+      <c r="I103" s="11"/>
+      <c r="J103" s="11"/>
     </row>
     <row r="104" spans="9:10">
-      <c r="I104" s="20"/>
-      <c r="J104" s="20"/>
+      <c r="I104" s="11"/>
+      <c r="J104" s="11"/>
     </row>
     <row r="105" spans="9:10">
-      <c r="I105" s="20"/>
-      <c r="J105" s="20"/>
+      <c r="I105" s="11"/>
+      <c r="J105" s="11"/>
     </row>
     <row r="106" spans="9:10">
-      <c r="I106" s="20"/>
-      <c r="J106" s="20"/>
+      <c r="I106" s="11"/>
+      <c r="J106" s="11"/>
     </row>
     <row r="107" spans="9:10">
-      <c r="I107" s="20"/>
-      <c r="J107" s="20"/>
+      <c r="I107" s="11"/>
+      <c r="J107" s="11"/>
     </row>
     <row r="108" spans="9:10">
-      <c r="I108" s="20"/>
-      <c r="J108" s="20"/>
+      <c r="I108" s="11"/>
+      <c r="J108" s="11"/>
     </row>
     <row r="109" spans="9:10">
-      <c r="I109" s="20"/>
-      <c r="J109" s="20"/>
+      <c r="I109" s="11"/>
+      <c r="J109" s="11"/>
     </row>
     <row r="110" spans="9:10">
-      <c r="I110" s="20"/>
-      <c r="J110" s="20"/>
+      <c r="I110" s="11"/>
+      <c r="J110" s="11"/>
     </row>
     <row r="111" spans="9:10">
-      <c r="I111" s="20"/>
-      <c r="J111" s="20"/>
+      <c r="I111" s="11"/>
+      <c r="J111" s="11"/>
     </row>
     <row r="112" spans="9:10">
-      <c r="I112" s="20"/>
-      <c r="J112" s="20"/>
+      <c r="I112" s="11"/>
+      <c r="J112" s="11"/>
     </row>
     <row r="113" spans="9:10">
-      <c r="I113" s="20"/>
-      <c r="J113" s="20"/>
+      <c r="I113" s="11"/>
+      <c r="J113" s="11"/>
     </row>
     <row r="114" spans="9:10">
-      <c r="I114" s="20"/>
-      <c r="J114" s="20"/>
+      <c r="I114" s="11"/>
+      <c r="J114" s="11"/>
     </row>
     <row r="115" spans="9:10">
-      <c r="I115" s="20"/>
-      <c r="J115" s="20"/>
+      <c r="I115" s="11"/>
+      <c r="J115" s="11"/>
     </row>
     <row r="116" spans="9:10">
-      <c r="I116" s="20"/>
-      <c r="J116" s="20"/>
+      <c r="I116" s="11"/>
+      <c r="J116" s="11"/>
     </row>
     <row r="117" spans="9:10">
-      <c r="I117" s="20"/>
-      <c r="J117" s="20"/>
+      <c r="I117" s="11"/>
+      <c r="J117" s="11"/>
     </row>
     <row r="118" spans="9:10">
       <c r="I118" s="10"/>
@@ -1219,18 +1225,18 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A7:K7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="B21:D21"/>
@@ -1245,18 +1251,18 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="I26:J26"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
